--- a/Results/comparison_results/Medium_comparison/Normal_Medium_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Medium_comparison/Normal_Medium_langsmith_extraction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>cost</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>run_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,14 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.713367</v>
+        <v>22.72441</v>
       </c>
       <c r="C2" t="n">
-        <v>3814</v>
+        <v>3837</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00693</t>
+          <t>0.00768</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>bdfa32f5-4181-4e40-9de7-7316a70c75c7</t>
         </is>
       </c>
     </row>
@@ -480,14 +490,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.717085</v>
+        <v>24.165296</v>
       </c>
       <c r="C3" t="n">
-        <v>3979</v>
+        <v>3946</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00846</t>
+          <t>0.00801</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>418d3289-950e-4cda-8bb4-9efacfac5193</t>
         </is>
       </c>
     </row>
@@ -498,14 +513,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.325665</v>
+        <v>19.640837</v>
       </c>
       <c r="C4" t="n">
-        <v>4003</v>
+        <v>3849</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00828</t>
+          <t>0.00804</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91a38a54-fc5b-4e38-82be-c2f931fb8855</t>
         </is>
       </c>
     </row>
@@ -516,14 +536,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24.013832</v>
+        <v>13.860188</v>
       </c>
       <c r="C5" t="n">
-        <v>3891</v>
+        <v>2066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00795</t>
+          <t>0.00456</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4a1bc03b-a995-4556-8a2a-3eb6a0759834</t>
         </is>
       </c>
     </row>
@@ -534,14 +559,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.502028</v>
+        <v>24.409793</v>
       </c>
       <c r="C6" t="n">
-        <v>4072</v>
+        <v>3882</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00981</t>
+          <t>0.00828</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29442e00-ec17-4b73-96f7-0b39d061db99</t>
         </is>
       </c>
     </row>
@@ -552,14 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.019193</v>
+        <v>27.402757</v>
       </c>
       <c r="C7" t="n">
-        <v>3877</v>
+        <v>4030</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00834</t>
+          <t>0.00885</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>41481048-d76e-4f54-ab32-de3d3fd6ec69</t>
         </is>
       </c>
     </row>
@@ -570,14 +605,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.204278</v>
+        <v>21.250291</v>
       </c>
       <c r="C8" t="n">
-        <v>3820</v>
+        <v>3897</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00807</t>
+          <t>0.00825</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7819e1ef-b893-4701-8582-e6f36458a3e8</t>
         </is>
       </c>
     </row>
@@ -588,14 +628,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26.073988</v>
+        <v>25.337596</v>
       </c>
       <c r="C9" t="n">
-        <v>4052</v>
+        <v>4099</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00897</t>
+          <t>0.00915</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9e5bd9d1-10ff-44f8-b241-a3774cc63110</t>
         </is>
       </c>
     </row>
@@ -606,14 +651,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.475923</v>
+        <v>19.812305</v>
       </c>
       <c r="C10" t="n">
-        <v>3860</v>
+        <v>3839</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>aed724f4-a680-4b85-a11d-298e8e2b305a</t>
         </is>
       </c>
     </row>
@@ -624,14 +674,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25.447474</v>
+        <v>24.763283</v>
       </c>
       <c r="C11" t="n">
-        <v>3953</v>
+        <v>3981</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>0.00915</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5c39664f-9496-42fd-b4b5-49b53c80a774</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Medium_comparison/Normal_Medium_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Medium_comparison/Normal_Medium_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (9, 5) and remove the toolkit.</t>
+          <t>Move to location (11, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.72441</v>
+        <v>24.588919</v>
       </c>
       <c r="C2" t="n">
-        <v>3837</v>
+        <v>3868</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.00768</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bdfa32f5-4181-4e40-9de7-7316a70c75c7</t>
+          <t>bf987438-11fe-4ea4-8ac8-aef65b60f040</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move to location (3, 8) and remove the liquid spill.</t>
+          <t>Move to location (7, 5) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.165296</v>
+        <v>25.774564</v>
       </c>
       <c r="C3" t="n">
-        <v>3946</v>
+        <v>3844</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00801</t>
+          <t>0.00804</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>418d3289-950e-4cda-8bb4-9efacfac5193</t>
+          <t>43b8ad0a-efe5-4ecb-87e8-7a597de1268d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move to location (1, 4) and remove the large debris.</t>
+          <t>Move to location (8, 6) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.640837</v>
+        <v>27.574987</v>
       </c>
       <c r="C4" t="n">
-        <v>3849</v>
+        <v>3952</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00804</t>
+          <t>0.00855</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91a38a54-fc5b-4e38-82be-c2f931fb8855</t>
+          <t>9e446b93-6741-4fdf-89e3-672158208eb6</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move to location (6, 5) and remove the dust.</t>
+          <t>Move to location (2, 4) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.860188</v>
+        <v>27.627885</v>
       </c>
       <c r="C5" t="n">
-        <v>2066</v>
+        <v>3829</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00456</t>
+          <t>0.00813</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4a1bc03b-a995-4556-8a2a-3eb6a0759834</t>
+          <t>e9f4fe67-4b74-4bcb-9973-71b8787c0c5e</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move to location (9, 5) and remove the grass.</t>
+          <t>Move to location (5, 2) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.409793</v>
+        <v>23.637939</v>
       </c>
       <c r="C6" t="n">
-        <v>3882</v>
+        <v>3839</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00828</t>
+          <t>0.00774</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29442e00-ec17-4b73-96f7-0b39d061db99</t>
+          <t>f153fe00-ec80-4937-bae3-a58698a04708</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move to location (5, 12) and remove the small debris.</t>
+          <t>Move to location (6, 7) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.402757</v>
+        <v>28.864845</v>
       </c>
       <c r="C7" t="n">
-        <v>4030</v>
+        <v>3960</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00885</t>
+          <t>0.00864</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>41481048-d76e-4f54-ab32-de3d3fd6ec69</t>
+          <t>2cad060a-57b4-4d08-9626-6a4ab989612a</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move to location (11, 12) and remove the vehicle.</t>
+          <t>Move to location (3, 6) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.250291</v>
+        <v>24.688907</v>
       </c>
       <c r="C8" t="n">
-        <v>3897</v>
+        <v>3858</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00825</t>
+          <t>0.00855</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7819e1ef-b893-4701-8582-e6f36458a3e8</t>
+          <t>b118f4fd-a574-4486-afe5-d83b9ebf4959</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move to location (12, 1) and remove the construction materials.</t>
+          <t>Move to location (6, 6) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.337596</v>
+        <v>25.909734</v>
       </c>
       <c r="C9" t="n">
-        <v>4099</v>
+        <v>3927</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00915</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9e5bd9d1-10ff-44f8-b241-a3774cc63110</t>
+          <t>375dad59-fd8a-4822-b932-a14628afbed2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move to location (8, 12) and remove the tree branches.</t>
+          <t>Move to location (3, 9) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.812305</v>
+        <v>35.421093</v>
       </c>
       <c r="C10" t="n">
-        <v>3839</v>
+        <v>3835</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.00789</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>aed724f4-a680-4b85-a11d-298e8e2b305a</t>
+          <t>eba4b5c5-42ac-47c7-afa7-402fe2915a66</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move to location (3, 5) and remove the screws.</t>
+          <t>Move to location (6, 6) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.763283</v>
+        <v>24.927466</v>
       </c>
       <c r="C11" t="n">
-        <v>3981</v>
+        <v>3776</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00915</t>
+          <t>0.00738</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5c39664f-9496-42fd-b4b5-49b53c80a774</t>
+          <t>265975ff-7806-4569-8fc0-0dd909dc8afe</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Medium_comparison/Normal_Medium_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Medium_comparison/Normal_Medium_langsmith_extraction.xlsx
@@ -463,14 +463,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (11, 8) and remove the toolkit.</t>
+          <t>Move Robot15 to location (8, 6) and remove the screws.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.588919</v>
+        <v>22.995794</v>
       </c>
       <c r="C2" t="n">
-        <v>3868</v>
+        <v>3855</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -479,214 +479,214 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bf987438-11fe-4ea4-8ac8-aef65b60f040</t>
+          <t>fab7db7a-f521-4140-8eb4-0f0c395ac018</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move to location (7, 5) and remove the liquid spill.</t>
+          <t>Move to location (10, 2) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.774564</v>
+        <v>25.411137</v>
       </c>
       <c r="C3" t="n">
-        <v>3844</v>
+        <v>3953</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00804</t>
+          <t>0.00891</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>43b8ad0a-efe5-4ecb-87e8-7a597de1268d</t>
+          <t>288e9003-0b70-446c-9a60-1a6c03025922</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move to location (8, 6) and remove the large debris.</t>
+          <t>Move to location (6, 6) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27.574987</v>
+        <v>24.897036</v>
       </c>
       <c r="C4" t="n">
-        <v>3952</v>
+        <v>3798</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00855</t>
+          <t>0.00753</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9e446b93-6741-4fdf-89e3-672158208eb6</t>
+          <t>766135a4-8835-4689-91e1-b9a16aae055e</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move to location (2, 4) and remove the dust.</t>
+          <t>Move to location (5, 3) and remove the large debris.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.627885</v>
+        <v>23.161379</v>
       </c>
       <c r="C5" t="n">
-        <v>3829</v>
+        <v>3919</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00813</t>
+          <t>0.00804</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>e9f4fe67-4b74-4bcb-9973-71b8787c0c5e</t>
+          <t>94a75475-33cb-4a6b-9b7b-466174d99cb5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move to location (5, 2) and remove the grass.</t>
+          <t>Move to location (6, 10) and remove the dust.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.637939</v>
+        <v>31.108275</v>
       </c>
       <c r="C6" t="n">
-        <v>3839</v>
+        <v>3875</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00774</t>
+          <t>0.00846</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>f153fe00-ec80-4937-bae3-a58698a04708</t>
+          <t>8574efd5-4df5-44a2-b70b-34572fb96b50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move to location (6, 7) and remove the small debris.</t>
+          <t>Move to location (4, 8) and remove the grass.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.864845</v>
+        <v>30.749819</v>
       </c>
       <c r="C7" t="n">
-        <v>3960</v>
+        <v>3888</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00864</t>
+          <t>0.00822</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2cad060a-57b4-4d08-9626-6a4ab989612a</t>
+          <t>29a8b512-8be1-4602-8b40-2e0a8e63f366</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move to location (3, 6) and remove the vehicle.</t>
+          <t>Move to location (8, 7) and remove the small debris.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.688907</v>
+        <v>31.511673</v>
       </c>
       <c r="C8" t="n">
-        <v>3858</v>
+        <v>3919</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00855</t>
+          <t>0.00828</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>b118f4fd-a574-4486-afe5-d83b9ebf4959</t>
+          <t>05435f9d-2dd5-4042-8c1d-5dd0c1f33e59</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move to location (6, 6) and remove the construction materials.</t>
+          <t>Move to location (1, 10) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.909734</v>
+        <v>31.595244</v>
       </c>
       <c r="C9" t="n">
-        <v>3927</v>
+        <v>4512</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0084</t>
+          <t>0.00915</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>375dad59-fd8a-4822-b932-a14628afbed2</t>
+          <t>09a1c6e2-cd69-4b43-9641-54831cd4bb9c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move to location (3, 9) and remove the tree branches.</t>
+          <t>Move to location (2, 12) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.421093</v>
+        <v>30.238777</v>
       </c>
       <c r="C10" t="n">
-        <v>3835</v>
+        <v>3890</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00789</t>
+          <t>0.00795</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>eba4b5c5-42ac-47c7-afa7-402fe2915a66</t>
+          <t>2b52dc19-88f3-4e0c-84b1-c2550a97f1be</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move to location (6, 6) and remove the screws.</t>
+          <t>Move to location (8, 9) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.927466</v>
+        <v>30.231626</v>
       </c>
       <c r="C11" t="n">
-        <v>3776</v>
+        <v>3879</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00738</t>
+          <t>0.00762</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>265975ff-7806-4569-8fc0-0dd909dc8afe</t>
+          <t>d2772432-8d5a-4185-aa51-12938fbda2f3</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Medium_comparison/Normal_Medium_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Medium_comparison/Normal_Medium_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot15 to location (8, 6) and remove the screws.</t>
+          <t>Move to location (10, 2) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.995794</v>
+        <v>25.411137</v>
       </c>
       <c r="C2" t="n">
-        <v>3855</v>
+        <v>3953</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.00891</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fab7db7a-f521-4140-8eb4-0f0c395ac018</t>
+          <t>288e9003-0b70-446c-9a60-1a6c03025922</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move to location (10, 2) and remove the toolkit.</t>
+          <t>Move to location (6, 6) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.411137</v>
+        <v>24.897036</v>
       </c>
       <c r="C3" t="n">
-        <v>3953</v>
+        <v>3798</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00891</t>
+          <t>0.00753</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>288e9003-0b70-446c-9a60-1a6c03025922</t>
+          <t>766135a4-8835-4689-91e1-b9a16aae055e</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move to location (6, 6) and remove the liquid spill.</t>
+          <t>Move to location (5, 3) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.897036</v>
+        <v>23.161379</v>
       </c>
       <c r="C4" t="n">
-        <v>3798</v>
+        <v>3919</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.00753</t>
+          <t>0.00804</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>766135a4-8835-4689-91e1-b9a16aae055e</t>
+          <t>94a75475-33cb-4a6b-9b7b-466174d99cb5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move to location (5, 3) and remove the large debris.</t>
+          <t>Move to location (6, 10) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.161379</v>
+        <v>31.108275</v>
       </c>
       <c r="C5" t="n">
-        <v>3919</v>
+        <v>3875</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00804</t>
+          <t>0.00846</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94a75475-33cb-4a6b-9b7b-466174d99cb5</t>
+          <t>8574efd5-4df5-44a2-b70b-34572fb96b50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move to location (6, 10) and remove the dust.</t>
+          <t>Move to location (4, 8) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.108275</v>
+        <v>30.749819</v>
       </c>
       <c r="C6" t="n">
-        <v>3875</v>
+        <v>3888</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.00846</t>
+          <t>0.00822</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8574efd5-4df5-44a2-b70b-34572fb96b50</t>
+          <t>29a8b512-8be1-4602-8b40-2e0a8e63f366</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move to location (4, 8) and remove the grass.</t>
+          <t>Move to location (8, 7) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30.749819</v>
+        <v>31.511673</v>
       </c>
       <c r="C7" t="n">
-        <v>3888</v>
+        <v>3919</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.00822</t>
+          <t>0.00828</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29a8b512-8be1-4602-8b40-2e0a8e63f366</t>
+          <t>05435f9d-2dd5-4042-8c1d-5dd0c1f33e59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move to location (8, 7) and remove the small debris.</t>
+          <t>Move to location (1, 10) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.511673</v>
+        <v>31.595244</v>
       </c>
       <c r="C8" t="n">
-        <v>3919</v>
+        <v>4512</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00828</t>
+          <t>0.00915</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>05435f9d-2dd5-4042-8c1d-5dd0c1f33e59</t>
+          <t>09a1c6e2-cd69-4b43-9641-54831cd4bb9c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move to location (1, 10) and remove the vehicle.</t>
+          <t>Move to location (2, 12) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.595244</v>
+        <v>30.238777</v>
       </c>
       <c r="C9" t="n">
-        <v>4512</v>
+        <v>3890</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.00915</t>
+          <t>0.00795</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>09a1c6e2-cd69-4b43-9641-54831cd4bb9c</t>
+          <t>2b52dc19-88f3-4e0c-84b1-c2550a97f1be</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move to location (2, 12) and remove the construction materials.</t>
+          <t>Move to location (8, 9) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.238777</v>
+        <v>30.231626</v>
       </c>
       <c r="C10" t="n">
-        <v>3890</v>
+        <v>3879</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.00795</t>
+          <t>0.00762</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2b52dc19-88f3-4e0c-84b1-c2550a97f1be</t>
+          <t>d2772432-8d5a-4185-aa51-12938fbda2f3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move to location (8, 9) and remove the tree branches.</t>
+          <t>Move to location (7, 5) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.231626</v>
+        <v>22.767147</v>
       </c>
       <c r="C11" t="n">
-        <v>3879</v>
+        <v>3837</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00762</t>
+          <t>0.00804</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>d2772432-8d5a-4185-aa51-12938fbda2f3</t>
+          <t>a2c581be-a93b-4358-aba4-e81a987ed28b</t>
         </is>
       </c>
     </row>
